--- a/报销/张帅交通费报销（2）.xlsx
+++ b/报销/张帅交通费报销（2）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\0-报销\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C07714-A8F4-4701-8E1A-578CDF4020B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC41F65-8153-4FBF-A5F7-D247060E2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,24 +548,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.9296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.06640625" style="1"/>
-    <col min="11" max="11" width="8.46484375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.125" style="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -595,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -675,7 +675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -695,7 +695,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -715,7 +715,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -735,7 +735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -755,7 +755,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -775,7 +775,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -795,7 +795,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -815,7 +815,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -835,7 +835,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -855,7 +855,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -875,7 +875,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -895,7 +895,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -916,7 +916,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -936,7 +936,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -956,7 +956,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -976,7 +976,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -996,7 +996,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -1136,13 +1136,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="4">
         <f>SUM(F3:F29)</f>
-        <v>3065</v>
+        <v>3054</v>
       </c>
     </row>
   </sheetData>

--- a/报销/张帅交通费报销（2）.xlsx
+++ b/报销/张帅交通费报销（2）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC41F65-8153-4FBF-A5F7-D247060E2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980A351-1CC3-4C03-A7CD-FBA88F0203AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>交通费用报销明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>BDA6576</t>
-  </si>
-  <si>
-    <t>BD66221</t>
   </si>
   <si>
     <t>BDF6616</t>
@@ -546,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,13 +1024,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>45679.769444444442</v>
+        <v>45679.901388888888</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="6">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1047,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>45679.901388888888</v>
+        <v>45680.59097222222</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="6">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1067,13 +1064,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>45680.59097222222</v>
+        <v>45680.652777777781</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1087,13 +1084,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="7">
-        <v>45680.652777777781</v>
+        <v>45681.350694444445</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F27" s="6">
-        <v>67</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1107,42 +1104,22 @@
         <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>45681.350694444445</v>
+        <v>45681.513888888891</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="6">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="7">
-        <v>45681.513888888891</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="4">
-        <f>SUM(F3:F29)</f>
-        <v>3054</v>
+      <c r="F29" s="4">
+        <f>SUM(F3:F28)</f>
+        <v>2902</v>
       </c>
     </row>
   </sheetData>

--- a/报销/张帅交通费报销（2）.xlsx
+++ b/报销/张帅交通费报销（2）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\practice\weekly\报销\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zs\工作\weekly\报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980A351-1CC3-4C03-A7CD-FBA88F0203AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF6B6E-9ED5-4CA0-9158-D961F162B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>交通费用报销明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>BD13561</t>
+  </si>
+  <si>
+    <t>瀛海办公</t>
+  </si>
+  <si>
+    <t>BD90133</t>
   </si>
 </sst>
 </file>
@@ -543,26 +549,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9.125" style="1"/>
-    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="11.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1328125" style="1"/>
+    <col min="11" max="11" width="8.46484375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -572,7 +578,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -592,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -612,7 +618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -632,7 +638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -652,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -672,7 +678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -692,7 +698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -712,7 +718,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -732,7 +738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -752,7 +758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -772,7 +778,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -792,7 +798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -812,7 +818,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -832,7 +838,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -852,7 +858,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -872,7 +878,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -892,7 +898,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -913,7 +919,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -933,7 +939,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -953,7 +959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -973,7 +979,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -993,7 +999,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -1101,25 +1107,45 @@
         <v>6</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7">
+        <v>45696.327777777777</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
         <v>45681.513888888891</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="4">
-        <f>SUM(F3:F28)</f>
-        <v>2902</v>
+      <c r="F30" s="4">
+        <f>SUM(F3:F29)</f>
+        <v>2921</v>
       </c>
     </row>
   </sheetData>
